--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -105,11 +105,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +174,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -181,15 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,38 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,47 +258,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,19 +320,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,163 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,9 +540,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +578,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,8 +615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,150 +635,109 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,44 +746,44 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,6 +798,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1167,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1234,7 +1230,9 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1443,52 +1441,52 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="23" ht="17.4" spans="2:2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="22.2" spans="2:7">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -104,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -168,15 +168,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,120 +310,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -558,17 +573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,16 +598,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,31 +635,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1245,7 +1245,9 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -176,53 +176,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,74 +310,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,13 +582,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,64 +635,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1260,7 +1260,9 @@
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -66,10 +66,10 @@
     <t>回老家过年，网络不稳定，可能没法每天上传</t>
   </si>
   <si>
-    <t>房间价格，位置的添加，查询</t>
-  </si>
-  <si>
-    <t>房间价格，位置的修改，删除</t>
+    <t>房间位置的添加，查询</t>
+  </si>
+  <si>
+    <t>房间位置的修改，删除</t>
   </si>
   <si>
     <t>顾客的添加</t>
@@ -168,29 +168,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,24 +221,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,23 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,30 +274,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,19 +320,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,163 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,50 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -593,21 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,16 +576,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,16 +653,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,115 +671,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1275,7 +1275,9 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1372,9 +1374,7 @@
       <c r="A15" s="4">
         <v>43503</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>刘小雨项目规划</t>
   </si>
@@ -66,10 +66,7 @@
     <t>回老家过年，网络不稳定，可能没法每天上传</t>
   </si>
   <si>
-    <t>房间位置的添加，查询</t>
-  </si>
-  <si>
-    <t>房间位置的修改，删除</t>
+    <t>房间位置的添加，查询，删除</t>
   </si>
   <si>
     <t>顾客的添加</t>
@@ -104,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -168,15 +165,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,21 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -221,6 +231,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -237,75 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,31 +317,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,13 +431,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,133 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,21 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -577,11 +559,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1161,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1290,7 +1287,9 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1361,9 +1360,7 @@
       <c r="A14" s="4">
         <v>43502</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1386,14 +1383,14 @@
         <v>43504</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:7">
@@ -1401,7 +1398,7 @@
         <v>43505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1414,7 +1411,7 @@
         <v>43506</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1449,12 +1446,12 @@
     </row>
     <row r="23" ht="17.4" spans="2:2">
       <c r="B23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1464,7 +1461,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1474,7 +1471,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1484,7 +1481,7 @@
     </row>
     <row r="27" ht="22.2" spans="2:7">
       <c r="B27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -164,24 +164,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,12 +203,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -207,11 +263,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,86 +286,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,21 +545,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -583,21 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -605,15 +575,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,16 +593,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1302,7 +1302,9 @@
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -164,6 +164,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,109 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,16 +239,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,19 +317,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,19 +437,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,139 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,39 +537,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -579,17 +546,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,8 +582,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1330,7 +1330,9 @@
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1387,7 +1389,9 @@
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -165,14 +165,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +203,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,24 +239,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,8 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,15 +279,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,28 +303,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,15 +555,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,24 +576,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,6 +596,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1406,7 +1406,9 @@
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -66,7 +66,7 @@
     <t>回老家过年，网络不稳定，可能没法每天上传</t>
   </si>
   <si>
-    <t>房间位置的添加，查询，删除</t>
+    <t>房间位置的添加查询删除</t>
   </si>
   <si>
     <t>顾客的添加</t>
@@ -78,7 +78,7 @@
     <t>订单的添加</t>
   </si>
   <si>
-    <t>订单的查询，修改，删除</t>
+    <t>订单的查询，修改和删除</t>
   </si>
   <si>
     <t>注意：</t>
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -165,21 +165,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,16 +261,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,98 +303,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,49 +317,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,37 +437,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,91 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -546,15 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +603,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -599,49 +632,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -78,7 +78,7 @@
     <t>订单的添加</t>
   </si>
   <si>
-    <t>订单的查询，修改和删除</t>
+    <t>订单的查询，删除</t>
   </si>
   <si>
     <t>注意：</t>
@@ -101,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -165,6 +165,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -172,14 +187,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,107 +294,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,20 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +570,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +611,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -617,31 +632,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +650,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1421,7 +1421,9 @@
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>

--- a/项目规划表.xlsx
+++ b/项目规划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>刘小雨项目规划</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>订单的查询，删除</t>
+  </si>
+  <si>
+    <t>翻车了翻车了</t>
   </si>
   <si>
     <t>注意：</t>
@@ -102,9 +105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -165,9 +168,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,6 +212,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -186,6 +235,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -195,14 +267,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,47 +280,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,45 +310,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,31 +320,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,151 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,30 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,11 +555,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,17 +571,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,16 +605,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,133 +653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1164,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1444,7 +1447,9 @@
       <c r="A20" s="4">
         <v>43508</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1456,12 +1461,12 @@
     </row>
     <row r="23" ht="17.4" spans="2:2">
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1471,7 +1476,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1481,7 +1486,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1491,7 +1496,7 @@
     </row>
     <row r="27" ht="22.2" spans="2:7">
       <c r="B27" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
